--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220516_110400.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220516_110400.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="259">
   <si>
     <t>사이트</t>
   </si>
@@ -763,6 +763,9 @@
     <t>브랜뉴뮤직</t>
   </si>
   <si>
+    <t>기타</t>
+  </si>
+  <si>
     <t>THE L1VE</t>
   </si>
   <si>
@@ -773,9 +776,6 @@
   </si>
   <si>
     <t>neuron music</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>BRAVE</t>
@@ -1203,7 +1203,7 @@
         <v>221</v>
       </c>
       <c r="H2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1281,7 +1281,7 @@
         <v>224</v>
       </c>
       <c r="H5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1307,7 +1307,7 @@
         <v>225</v>
       </c>
       <c r="H6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1333,7 +1333,7 @@
         <v>226</v>
       </c>
       <c r="H7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1359,7 +1359,7 @@
         <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1411,7 +1411,7 @@
         <v>226</v>
       </c>
       <c r="H10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1437,7 +1437,7 @@
         <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1489,7 +1489,7 @@
         <v>230</v>
       </c>
       <c r="H13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1515,7 +1515,7 @@
         <v>231</v>
       </c>
       <c r="H14" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1541,7 +1541,7 @@
         <v>225</v>
       </c>
       <c r="H15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1567,7 +1567,7 @@
         <v>226</v>
       </c>
       <c r="H16" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1593,7 +1593,7 @@
         <v>221</v>
       </c>
       <c r="H17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1619,7 +1619,7 @@
         <v>226</v>
       </c>
       <c r="H18" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1645,7 +1645,7 @@
         <v>226</v>
       </c>
       <c r="H19" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1697,7 +1697,7 @@
         <v>232</v>
       </c>
       <c r="H21" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1723,7 +1723,7 @@
         <v>226</v>
       </c>
       <c r="H22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1749,7 +1749,7 @@
         <v>226</v>
       </c>
       <c r="H23" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1775,7 +1775,7 @@
         <v>233</v>
       </c>
       <c r="H24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1801,7 +1801,7 @@
         <v>226</v>
       </c>
       <c r="H25" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1827,7 +1827,7 @@
         <v>226</v>
       </c>
       <c r="H26" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1879,7 +1879,7 @@
         <v>226</v>
       </c>
       <c r="H28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1905,7 +1905,7 @@
         <v>234</v>
       </c>
       <c r="H29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1931,7 +1931,7 @@
         <v>226</v>
       </c>
       <c r="H30" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1957,7 +1957,7 @@
         <v>226</v>
       </c>
       <c r="H31" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1983,7 +1983,7 @@
         <v>226</v>
       </c>
       <c r="H32" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2009,7 +2009,7 @@
         <v>235</v>
       </c>
       <c r="H33" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2035,7 +2035,7 @@
         <v>224</v>
       </c>
       <c r="H34" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2061,7 +2061,7 @@
         <v>236</v>
       </c>
       <c r="H35" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2087,7 +2087,7 @@
         <v>236</v>
       </c>
       <c r="H36" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2113,7 +2113,7 @@
         <v>237</v>
       </c>
       <c r="H37" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2139,7 +2139,7 @@
         <v>238</v>
       </c>
       <c r="H38" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2165,7 +2165,7 @@
         <v>239</v>
       </c>
       <c r="H39" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2191,7 +2191,7 @@
         <v>221</v>
       </c>
       <c r="H40" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2217,7 +2217,7 @@
         <v>240</v>
       </c>
       <c r="H41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2243,7 +2243,7 @@
         <v>241</v>
       </c>
       <c r="H42" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2269,7 +2269,7 @@
         <v>242</v>
       </c>
       <c r="H43" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2295,7 +2295,7 @@
         <v>243</v>
       </c>
       <c r="H44" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2477,7 +2477,7 @@
         <v>243</v>
       </c>
       <c r="H51" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2503,7 +2503,7 @@
         <v>242</v>
       </c>
       <c r="H52" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2529,7 +2529,7 @@
         <v>245</v>
       </c>
       <c r="H53" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2581,7 +2581,7 @@
         <v>228</v>
       </c>
       <c r="H55" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2607,7 +2607,7 @@
         <v>246</v>
       </c>
       <c r="H56" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2633,7 +2633,7 @@
         <v>228</v>
       </c>
       <c r="H57" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2685,7 +2685,7 @@
         <v>243</v>
       </c>
       <c r="H59" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2711,7 +2711,7 @@
         <v>243</v>
       </c>
       <c r="H60" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2737,7 +2737,7 @@
         <v>233</v>
       </c>
       <c r="H61" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2763,7 +2763,7 @@
         <v>232</v>
       </c>
       <c r="H62" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2815,7 +2815,7 @@
         <v>228</v>
       </c>
       <c r="H64" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2841,7 +2841,7 @@
         <v>247</v>
       </c>
       <c r="H65" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2867,7 +2867,7 @@
         <v>248</v>
       </c>
       <c r="H66" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2893,7 +2893,7 @@
         <v>221</v>
       </c>
       <c r="H67" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2971,7 +2971,7 @@
         <v>243</v>
       </c>
       <c r="H70" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2997,7 +2997,7 @@
         <v>231</v>
       </c>
       <c r="H71" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3023,7 +3023,7 @@
         <v>236</v>
       </c>
       <c r="H72" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3049,7 +3049,7 @@
         <v>225</v>
       </c>
       <c r="H73" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3075,7 +3075,7 @@
         <v>236</v>
       </c>
       <c r="H74" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3097,6 +3097,12 @@
       <c r="F75" t="s">
         <v>201</v>
       </c>
+      <c r="G75" t="s">
+        <v>249</v>
+      </c>
+      <c r="H75" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
@@ -3118,10 +3124,10 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H76" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3147,7 +3153,7 @@
         <v>225</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3225,7 +3231,7 @@
         <v>236</v>
       </c>
       <c r="H80" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3251,7 +3257,7 @@
         <v>243</v>
       </c>
       <c r="H81" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3274,10 +3280,10 @@
         <v>205</v>
       </c>
       <c r="G82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H82" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3300,10 +3306,10 @@
         <v>91</v>
       </c>
       <c r="G83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H83" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3326,10 +3332,10 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H84" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3352,10 +3358,10 @@
         <v>206</v>
       </c>
       <c r="G85" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H85" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3381,7 +3387,7 @@
         <v>236</v>
       </c>
       <c r="H86" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3404,10 +3410,10 @@
         <v>208</v>
       </c>
       <c r="G87" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H87" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3433,7 +3439,7 @@
         <v>254</v>
       </c>
       <c r="H88" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3456,10 +3462,10 @@
         <v>210</v>
       </c>
       <c r="G89" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H89" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3511,7 +3517,7 @@
         <v>221</v>
       </c>
       <c r="H91" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3537,7 +3543,7 @@
         <v>255</v>
       </c>
       <c r="H92" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3589,7 +3595,7 @@
         <v>228</v>
       </c>
       <c r="H94" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3615,7 +3621,7 @@
         <v>256</v>
       </c>
       <c r="H95" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3641,7 +3647,7 @@
         <v>257</v>
       </c>
       <c r="H96" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3667,7 +3673,7 @@
         <v>258</v>
       </c>
       <c r="H97" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:8">

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220516_110400.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220516_110400.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="258">
   <si>
     <t>사이트</t>
   </si>
@@ -700,7 +700,7 @@
     <t>SM</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>스윙</t>
@@ -761,9 +761,6 @@
   </si>
   <si>
     <t>브랜뉴뮤직</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>THE L1VE</t>
@@ -1203,7 +1200,7 @@
         <v>221</v>
       </c>
       <c r="H2" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1281,7 +1278,7 @@
         <v>224</v>
       </c>
       <c r="H5" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1307,7 +1304,7 @@
         <v>225</v>
       </c>
       <c r="H6" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1333,7 +1330,7 @@
         <v>226</v>
       </c>
       <c r="H7" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1359,7 +1356,7 @@
         <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1411,7 +1408,7 @@
         <v>226</v>
       </c>
       <c r="H10" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1437,7 +1434,7 @@
         <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1489,7 +1486,7 @@
         <v>230</v>
       </c>
       <c r="H13" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1515,7 +1512,7 @@
         <v>231</v>
       </c>
       <c r="H14" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1541,7 +1538,7 @@
         <v>225</v>
       </c>
       <c r="H15" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1567,7 +1564,7 @@
         <v>226</v>
       </c>
       <c r="H16" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1593,7 +1590,7 @@
         <v>221</v>
       </c>
       <c r="H17" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1619,7 +1616,7 @@
         <v>226</v>
       </c>
       <c r="H18" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1645,7 +1642,7 @@
         <v>226</v>
       </c>
       <c r="H19" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1697,7 +1694,7 @@
         <v>232</v>
       </c>
       <c r="H21" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1723,7 +1720,7 @@
         <v>226</v>
       </c>
       <c r="H22" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1749,7 +1746,7 @@
         <v>226</v>
       </c>
       <c r="H23" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1775,7 +1772,7 @@
         <v>233</v>
       </c>
       <c r="H24" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1801,7 +1798,7 @@
         <v>226</v>
       </c>
       <c r="H25" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1827,7 +1824,7 @@
         <v>226</v>
       </c>
       <c r="H26" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1879,7 +1876,7 @@
         <v>226</v>
       </c>
       <c r="H28" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1905,7 +1902,7 @@
         <v>234</v>
       </c>
       <c r="H29" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1931,7 +1928,7 @@
         <v>226</v>
       </c>
       <c r="H30" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1957,7 +1954,7 @@
         <v>226</v>
       </c>
       <c r="H31" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1983,7 +1980,7 @@
         <v>226</v>
       </c>
       <c r="H32" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2009,7 +2006,7 @@
         <v>235</v>
       </c>
       <c r="H33" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2035,7 +2032,7 @@
         <v>224</v>
       </c>
       <c r="H34" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2061,7 +2058,7 @@
         <v>236</v>
       </c>
       <c r="H35" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2087,7 +2084,7 @@
         <v>236</v>
       </c>
       <c r="H36" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2113,7 +2110,7 @@
         <v>237</v>
       </c>
       <c r="H37" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2139,7 +2136,7 @@
         <v>238</v>
       </c>
       <c r="H38" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2165,7 +2162,7 @@
         <v>239</v>
       </c>
       <c r="H39" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2191,7 +2188,7 @@
         <v>221</v>
       </c>
       <c r="H40" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2217,7 +2214,7 @@
         <v>240</v>
       </c>
       <c r="H41" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2243,7 +2240,7 @@
         <v>241</v>
       </c>
       <c r="H42" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2269,7 +2266,7 @@
         <v>242</v>
       </c>
       <c r="H43" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2295,7 +2292,7 @@
         <v>243</v>
       </c>
       <c r="H44" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2477,7 +2474,7 @@
         <v>243</v>
       </c>
       <c r="H51" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2503,7 +2500,7 @@
         <v>242</v>
       </c>
       <c r="H52" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2529,7 +2526,7 @@
         <v>245</v>
       </c>
       <c r="H53" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2581,7 +2578,7 @@
         <v>228</v>
       </c>
       <c r="H55" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2607,7 +2604,7 @@
         <v>246</v>
       </c>
       <c r="H56" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2633,7 +2630,7 @@
         <v>228</v>
       </c>
       <c r="H57" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2685,7 +2682,7 @@
         <v>243</v>
       </c>
       <c r="H59" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2711,7 +2708,7 @@
         <v>243</v>
       </c>
       <c r="H60" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2737,7 +2734,7 @@
         <v>233</v>
       </c>
       <c r="H61" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2763,7 +2760,7 @@
         <v>232</v>
       </c>
       <c r="H62" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2815,7 +2812,7 @@
         <v>228</v>
       </c>
       <c r="H64" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2841,7 +2838,7 @@
         <v>247</v>
       </c>
       <c r="H65" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2867,7 +2864,7 @@
         <v>248</v>
       </c>
       <c r="H66" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2893,7 +2890,7 @@
         <v>221</v>
       </c>
       <c r="H67" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2971,7 +2968,7 @@
         <v>243</v>
       </c>
       <c r="H70" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2997,7 +2994,7 @@
         <v>231</v>
       </c>
       <c r="H71" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3023,7 +3020,7 @@
         <v>236</v>
       </c>
       <c r="H72" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3049,7 +3046,7 @@
         <v>225</v>
       </c>
       <c r="H73" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3075,7 +3072,7 @@
         <v>236</v>
       </c>
       <c r="H74" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3098,10 +3095,10 @@
         <v>201</v>
       </c>
       <c r="G75" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="H75" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3124,10 +3121,10 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H76" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3153,7 +3150,7 @@
         <v>225</v>
       </c>
       <c r="H77" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3231,7 +3228,7 @@
         <v>236</v>
       </c>
       <c r="H80" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3257,7 +3254,7 @@
         <v>243</v>
       </c>
       <c r="H81" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3280,10 +3277,10 @@
         <v>205</v>
       </c>
       <c r="G82" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H82" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3306,10 +3303,10 @@
         <v>91</v>
       </c>
       <c r="G83" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H83" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3332,10 +3329,10 @@
         <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H84" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3358,10 +3355,10 @@
         <v>206</v>
       </c>
       <c r="G85" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H85" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3387,7 +3384,7 @@
         <v>236</v>
       </c>
       <c r="H86" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3410,10 +3407,10 @@
         <v>208</v>
       </c>
       <c r="G87" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="H87" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3436,10 +3433,10 @@
         <v>209</v>
       </c>
       <c r="G88" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H88" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3462,10 +3459,10 @@
         <v>210</v>
       </c>
       <c r="G89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H89" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3517,7 +3514,7 @@
         <v>221</v>
       </c>
       <c r="H91" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3540,10 +3537,10 @@
         <v>213</v>
       </c>
       <c r="G92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H92" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3595,7 +3592,7 @@
         <v>228</v>
       </c>
       <c r="H94" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3618,10 +3615,10 @@
         <v>215</v>
       </c>
       <c r="G95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H95" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3644,10 +3641,10 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H96" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3670,10 +3667,10 @@
         <v>216</v>
       </c>
       <c r="G97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H97" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:8">
